--- a/Data.xlsx
+++ b/Data.xlsx
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>127</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39340</v>
+        <v>3579885</v>
       </c>
     </row>
   </sheetData>
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35688</v>
+        <v>3355811</v>
       </c>
       <c r="C2" t="n">
-        <v>3652</v>
+        <v>224074</v>
       </c>
       <c r="D2" t="n">
-        <v>32036</v>
+        <v>3131737</v>
       </c>
     </row>
     <row r="3">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3300713752726375</v>
+        <v>0.4595786446316695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.499214413702082</v>
+        <v>0.5254028695009321</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1691430384294444</v>
+        <v>-0.06582422486926254</v>
       </c>
     </row>
     <row r="4">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2201986992541195</v>
+        <v>0.1696655472664336</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2679149111732141</v>
+        <v>0.1661075730602642</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.04771621191909461</v>
+        <v>0.003557974206169351</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05867918592551363</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.05867918592551363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1142,13 +1142,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2332984974105297</v>
+        <v>0.3179427570495281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2332984974105297</v>
+        <v>0.4257778042233032</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.1078350471737752</v>
       </c>
     </row>
     <row r="7">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2332984974105297</v>
+        <v>0.488712460913276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4137217991500527</v>
+        <v>0.488712460913276</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.180423301739523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1174,13 +1174,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4137217991500527</v>
+        <v>0.6244755151193696</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8322202726413821</v>
+        <v>0.6244755151193696</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4184984734913293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35688</v>
+        <v>3355811</v>
       </c>
       <c r="C10" t="n">
-        <v>3652</v>
+        <v>224074</v>
       </c>
       <c r="D10" t="n">
-        <v>32036</v>
+        <v>3131737</v>
       </c>
     </row>
     <row r="11">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2335348856974457</v>
+        <v>0.5689048371110891</v>
       </c>
       <c r="C11" t="n">
-        <v>0.464954915634657</v>
+        <v>0.6548482653024159</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2314200299372112</v>
+        <v>-0.08594342819132683</v>
       </c>
     </row>
     <row r="12">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.210620851193228</v>
+        <v>0.2147435648054299</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3076800962687633</v>
+        <v>0.2040028855739021</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.09705924507553526</v>
+        <v>0.01074067923152777</v>
       </c>
     </row>
     <row r="13">
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06244422268507897</v>
+        <v>0.04348578693528356</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.06244422268507897</v>
+        <v>-0.04348578693528356</v>
       </c>
     </row>
     <row r="14">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1654879378302071</v>
+        <v>0.493014405732891</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1769242987371342</v>
+        <v>0.493014405732891</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0114363609069271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1769242987371342</v>
+        <v>0.5048731591452524</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3802338166188913</v>
+        <v>0.566202614440349</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2033095178817571</v>
+        <v>-0.06132945529509659</v>
       </c>
     </row>
     <row r="16">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2172205455634446</v>
+        <v>0.603512733313876</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7760168836105759</v>
+        <v>0.8953512427396331</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5587963380471312</v>
+        <v>-0.2918385094257571</v>
       </c>
     </row>
     <row r="17">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35688</v>
+        <v>3355811</v>
       </c>
       <c r="C18" t="n">
-        <v>3652</v>
+        <v>224074</v>
       </c>
       <c r="D18" t="n">
-        <v>32036</v>
+        <v>3131737</v>
       </c>
     </row>
     <row r="19">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>842.9208137188971</v>
+        <v>929.1453246324063</v>
       </c>
       <c r="C19" t="n">
-        <v>855.6139101861993</v>
+        <v>929.2319903246249</v>
       </c>
       <c r="D19" t="n">
-        <v>-12.69309646730221</v>
+        <v>-0.08666569221861664</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>638.5590578061374</v>
+        <v>448.9300641685554</v>
       </c>
       <c r="C20" t="n">
-        <v>492.8462957878507</v>
+        <v>416.5986605140962</v>
       </c>
       <c r="D20" t="n">
-        <v>145.7127620182866</v>
+        <v>32.33140365445917</v>
       </c>
     </row>
     <row r="21">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C21" t="n">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="D21" t="n">
-        <v>-83</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="22">
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>301</v>
+        <v>646</v>
       </c>
       <c r="C22" t="n">
-        <v>468</v>
+        <v>674</v>
       </c>
       <c r="D22" t="n">
-        <v>-167</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="23">
@@ -1414,13 +1414,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>665</v>
+        <v>944</v>
       </c>
       <c r="C23" t="n">
-        <v>762</v>
+        <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>-97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
@@ -1430,13 +1430,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C24" t="n">
-        <v>1089</v>
+        <v>1069</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2586</v>
+        <v>2724</v>
       </c>
       <c r="C25" t="n">
-        <v>2475</v>
+        <v>2724</v>
       </c>
       <c r="D25" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1462,13 +1462,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35688</v>
+        <v>3355811</v>
       </c>
       <c r="C26" t="n">
-        <v>3652</v>
+        <v>224074</v>
       </c>
       <c r="D26" t="n">
-        <v>32036</v>
+        <v>3131737</v>
       </c>
     </row>
     <row r="27">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.31849921542255</v>
+        <v>19.97104628359582</v>
       </c>
       <c r="C27" t="n">
-        <v>1.535569550930997</v>
+        <v>18.96142747485206</v>
       </c>
       <c r="D27" t="n">
-        <v>2.782929664491554</v>
+        <v>1.009618808743763</v>
       </c>
     </row>
     <row r="28">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.24127020924936</v>
+        <v>6.698106840874964</v>
       </c>
       <c r="C28" t="n">
-        <v>4.239352412631082</v>
+        <v>7.529885079174452</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001917796618277734</v>
+        <v>-0.8317782382994876</v>
       </c>
     </row>
     <row r="29">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-11.6</v>
+        <v>-2.9</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.6</v>
+        <v>-2.9</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.4</v>
+        <v>15.8</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.2</v>
+        <v>13.8</v>
       </c>
       <c r="D30" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.8</v>
+        <v>21.2</v>
       </c>
       <c r="C31" t="n">
-        <v>2.4</v>
+        <v>20.6</v>
       </c>
       <c r="D31" t="n">
-        <v>1.4</v>
+        <v>0.5999999999999979</v>
       </c>
     </row>
     <row r="32">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.5</v>
+        <v>26</v>
       </c>
       <c r="C32" t="n">
-        <v>3.3</v>
+        <v>25.8</v>
       </c>
       <c r="D32" t="n">
-        <v>2.2</v>
+        <v>0.1999999999999993</v>
       </c>
     </row>
     <row r="33">
@@ -1574,13 +1574,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13.9</v>
+        <v>31.2</v>
       </c>
       <c r="C33" t="n">
-        <v>10.5</v>
+        <v>31.2</v>
       </c>
       <c r="D33" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1590,13 +1590,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35688</v>
+        <v>3355811</v>
       </c>
       <c r="C34" t="n">
-        <v>3652</v>
+        <v>224074</v>
       </c>
       <c r="D34" t="n">
-        <v>32036</v>
+        <v>3131737</v>
       </c>
     </row>
     <row r="35">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-2.887256220578346</v>
+        <v>14.17008538323524</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.6486856516977</v>
+        <v>12.79281130340869</v>
       </c>
       <c r="D35" t="n">
-        <v>2.761429431119354</v>
+        <v>1.377274079826551</v>
       </c>
     </row>
     <row r="36">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.25253967315856</v>
+        <v>8.215413976754572</v>
       </c>
       <c r="C36" t="n">
-        <v>6.787568261635542</v>
+        <v>9.252445331961622</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.5350285884769823</v>
+        <v>-1.03703135520705</v>
       </c>
     </row>
     <row r="37">
@@ -1638,10 +1638,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-21.2</v>
+        <v>-14.5</v>
       </c>
       <c r="C37" t="n">
-        <v>-21.2</v>
+        <v>-14.5</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-7.2</v>
+        <v>8.6</v>
       </c>
       <c r="C38" t="n">
-        <v>-10.6</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>3.399999999999999</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="39">
@@ -1670,13 +1670,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-5.2</v>
+        <v>15.9</v>
       </c>
       <c r="C39" t="n">
-        <v>-6.4</v>
+        <v>14.9</v>
       </c>
       <c r="D39" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9</v>
+        <v>21.5</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.9</v>
+        <v>21.1</v>
       </c>
       <c r="D40" t="n">
-        <v>1.8</v>
+        <v>0.3999999999999986</v>
       </c>
     </row>
     <row r="41">
@@ -1702,13 +1702,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>12.6</v>
+        <v>25.1</v>
       </c>
       <c r="C41" t="n">
-        <v>8.6</v>
+        <v>24.4</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>0.7000000000000028</v>
       </c>
     </row>
     <row r="42">
@@ -1718,13 +1718,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35688</v>
+        <v>3355811</v>
       </c>
       <c r="C42" t="n">
-        <v>3652</v>
+        <v>224074</v>
       </c>
       <c r="D42" t="n">
-        <v>32036</v>
+        <v>3131737</v>
       </c>
     </row>
     <row r="43">
@@ -1734,13 +1734,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.34516083837705</v>
+        <v>72.99431562146972</v>
       </c>
       <c r="C43" t="n">
-        <v>60.74312705366923</v>
+        <v>71.2579000687273</v>
       </c>
       <c r="D43" t="n">
-        <v>0.602033784707821</v>
+        <v>1.736415552742429</v>
       </c>
     </row>
     <row r="44">
@@ -1750,13 +1750,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.83160352954727</v>
+        <v>12.64902892252483</v>
       </c>
       <c r="C44" t="n">
-        <v>15.40374124849461</v>
+        <v>14.58280201891506</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.5721377189473458</v>
+        <v>-1.933773096390226</v>
       </c>
     </row>
     <row r="45">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>42.6</v>
+        <v>37.2</v>
       </c>
       <c r="C45" t="n">
-        <v>44.8</v>
+        <v>37.2</v>
       </c>
       <c r="D45" t="n">
-        <v>-2.199999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1782,13 +1782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.9</v>
+        <v>63.7</v>
       </c>
       <c r="C46" t="n">
-        <v>45.4</v>
+        <v>61.8</v>
       </c>
       <c r="D46" t="n">
-        <v>5.5</v>
+        <v>1.900000000000006</v>
       </c>
     </row>
     <row r="47">
@@ -1798,13 +1798,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>55</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>53</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>74.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>75.2</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.4000000000000057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1830,13 +1830,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>91.8</v>
+        <v>95.3</v>
       </c>
       <c r="C49" t="n">
-        <v>88.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D49" t="n">
-        <v>3.700000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1846,13 +1846,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>35688</v>
+        <v>3355811</v>
       </c>
       <c r="C50" t="n">
-        <v>3652</v>
+        <v>224074</v>
       </c>
       <c r="D50" t="n">
-        <v>32036</v>
+        <v>3131737</v>
       </c>
     </row>
     <row r="51">
@@ -1862,13 +1862,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.33987746581484</v>
+        <v>3.899562609157667</v>
       </c>
       <c r="C51" t="n">
-        <v>7.690514512595837</v>
+        <v>5.205462690896757</v>
       </c>
       <c r="D51" t="n">
-        <v>-3.350637046780997</v>
+        <v>-1.305900081739089</v>
       </c>
     </row>
     <row r="52">
@@ -1878,13 +1878,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>7.54514921454096</v>
+        <v>10.33846842396129</v>
       </c>
       <c r="C52" t="n">
-        <v>11.42884860979736</v>
+        <v>10.66610290781328</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.883699395256405</v>
+        <v>-0.3276344838519858</v>
       </c>
     </row>
     <row r="53">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7.368</v>
+        <v>1.28</v>
       </c>
       <c r="C56" t="n">
-        <v>6.941</v>
+        <v>4.328</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4270000000000005</v>
+        <v>-3.048</v>
       </c>
     </row>
     <row r="57">
@@ -1958,13 +1958,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>27.998</v>
+        <v>91.666</v>
       </c>
       <c r="C57" t="n">
-        <v>27.998</v>
+        <v>52.323</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>39.343</v>
       </c>
     </row>
     <row r="58">
@@ -1974,13 +1974,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>35688</v>
+        <v>3355811</v>
       </c>
       <c r="C58" t="n">
-        <v>3652</v>
+        <v>224074</v>
       </c>
       <c r="D58" t="n">
-        <v>32036</v>
+        <v>3131737</v>
       </c>
     </row>
     <row r="59">
@@ -1990,13 +1990,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>41.01318930733019</v>
+        <v>34.82675463546668</v>
       </c>
       <c r="C59" t="n">
-        <v>45.11495071193866</v>
+        <v>38.38507234217266</v>
       </c>
       <c r="D59" t="n">
-        <v>-4.101761404608467</v>
+        <v>-3.558317706705985</v>
       </c>
     </row>
     <row r="60">
@@ -2006,13 +2006,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>11.82285990370606</v>
+        <v>12.45786143664346</v>
       </c>
       <c r="C60" t="n">
-        <v>16.87960236754151</v>
+        <v>14.64198611750127</v>
       </c>
       <c r="D60" t="n">
-        <v>-5.05674246383545</v>
+        <v>-2.184124680857806</v>
       </c>
     </row>
     <row r="61">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>16.6</v>
+        <v>11.2</v>
       </c>
       <c r="C61" t="n">
-        <v>17.6</v>
+        <v>14.8</v>
       </c>
       <c r="D61" t="n">
-        <v>-1</v>
+        <v>-3.600000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -2038,13 +2038,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>35.3</v>
+        <v>26.3</v>
       </c>
       <c r="C62" t="n">
-        <v>31.7</v>
+        <v>26.6</v>
       </c>
       <c r="D62" t="n">
-        <v>3.599999999999998</v>
+        <v>-0.3000000000000007</v>
       </c>
     </row>
     <row r="63">
@@ -2054,13 +2054,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>38.9</v>
+        <v>33.1</v>
       </c>
       <c r="C63" t="n">
-        <v>44.6</v>
+        <v>36.7</v>
       </c>
       <c r="D63" t="n">
-        <v>-5.700000000000003</v>
+        <v>-3.600000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -2070,13 +2070,13 @@
         </is>
       </c>
       <c r="B64" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C64" t="n">
         <v>50</v>
       </c>
-      <c r="C64" t="n">
-        <v>53.6</v>
-      </c>
       <c r="D64" t="n">
-        <v>-3.600000000000001</v>
+        <v>-8.200000000000003</v>
       </c>
     </row>
     <row r="65">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>71.8</v>
+        <v>78.8</v>
       </c>
       <c r="C65" t="n">
-        <v>71.8</v>
+        <v>78.8</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2102,13 +2102,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>35688</v>
+        <v>3355811</v>
       </c>
       <c r="C66" t="n">
-        <v>3652</v>
+        <v>224074</v>
       </c>
       <c r="D66" t="n">
-        <v>32036</v>
+        <v>3131737</v>
       </c>
     </row>
     <row r="67">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>23.27796738399462</v>
+        <v>20.80891721852036</v>
       </c>
       <c r="C67" t="n">
-        <v>27.79778203723987</v>
+        <v>22.89632710622384</v>
       </c>
       <c r="D67" t="n">
-        <v>-4.519814653245252</v>
+        <v>-2.087409887703483</v>
       </c>
     </row>
     <row r="68">
@@ -2134,13 +2134,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>8.19970372934457</v>
+        <v>6.871780819344662</v>
       </c>
       <c r="C68" t="n">
-        <v>12.30813854548312</v>
+        <v>8.672529301674125</v>
       </c>
       <c r="D68" t="n">
-        <v>-4.108434816138551</v>
+        <v>-1.800748482329463</v>
       </c>
     </row>
     <row r="69">
@@ -2150,13 +2150,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="C69" t="n">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="70">
@@ -2166,13 +2166,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>17</v>
+        <v>16.1</v>
       </c>
       <c r="C70" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1999999999999993</v>
+        <v>-0.3999999999999986</v>
       </c>
     </row>
     <row r="71">
@@ -2182,13 +2182,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>24.1</v>
+        <v>19.9</v>
       </c>
       <c r="C71" t="n">
-        <v>27.7</v>
+        <v>21.3</v>
       </c>
       <c r="D71" t="n">
-        <v>-3.599999999999998</v>
+        <v>-1.400000000000002</v>
       </c>
     </row>
     <row r="72">
@@ -2198,13 +2198,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>26.7</v>
+        <v>24.1</v>
       </c>
       <c r="C72" t="n">
-        <v>40.7</v>
+        <v>28.6</v>
       </c>
       <c r="D72" t="n">
-        <v>-14</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="73">
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>46.4</v>
+        <v>45.3</v>
       </c>
       <c r="C73" t="n">
-        <v>46.4</v>
+        <v>43.8</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="74">
@@ -2230,13 +2230,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>35688</v>
+        <v>3355811</v>
       </c>
       <c r="C74" t="n">
-        <v>3652</v>
+        <v>224074</v>
       </c>
       <c r="D74" t="n">
-        <v>32036</v>
+        <v>3131737</v>
       </c>
     </row>
     <row r="75">
@@ -2246,13 +2246,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>14.52166834790406</v>
+        <v>15.29974739340206</v>
       </c>
       <c r="C75" t="n">
-        <v>14.2434556407448</v>
+        <v>15.35887117648634</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2782127071592591</v>
+        <v>-0.05912378308427968</v>
       </c>
     </row>
     <row r="76">
@@ -2262,13 +2262,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.564708141746938</v>
+        <v>1.24085502727622</v>
       </c>
       <c r="C76" t="n">
-        <v>2.444162162027061</v>
+        <v>1.094902632689564</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1205459797198767</v>
+        <v>0.1459523945866563</v>
       </c>
     </row>
     <row r="77">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>7.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>-0.8999999999999986</v>
       </c>
     </row>
     <row r="78">
@@ -2294,13 +2294,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>14.1</v>
+        <v>15.2</v>
       </c>
       <c r="C78" t="n">
-        <v>11.8</v>
+        <v>15.3</v>
       </c>
       <c r="D78" t="n">
-        <v>2.299999999999999</v>
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="79">
@@ -2310,10 +2310,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C79" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
